--- a/Automation Sanity Result/TestResults_23062025_123228.xlsx
+++ b/Automation Sanity Result/TestResults_23062025_123228.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Serial No</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>23-06-2025 12:40:18</t>
+  </si>
+  <si>
+    <t>Check if BTL pro flow is working fine</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1217,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -1216,23 +1225,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.5428571428571" customWidth="1"/>
-    <col min="2" max="2" width="6.59047619047619" customWidth="1"/>
-    <col min="3" max="3" width="11.0285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5428571428571"/>
+    <col min="2" max="2" customWidth="true" width="6.59047619047619"/>
+    <col min="3" max="3" customWidth="true" width="11.0285714285714"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
